--- a/FunctionalityChecklist.xlsx
+++ b/FunctionalityChecklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whytheam/Documents/Research/Locality/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whytheam/Documents/Research/Locality/numa-ws-benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D2DE26B-79DD-A04B-ACF6-A34B1DB1FDD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F76E84-3F4C-CB40-ADE4-61641736429B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{322178E3-D152-D343-A63E-DB1545416DF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>CILKPLUS</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>gc</t>
+  </si>
+  <si>
+    <t>Cilk Plus</t>
+  </si>
+  <si>
+    <t>NUMA-WS</t>
   </si>
 </sst>
 </file>
@@ -105,8 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2FE7A9-160E-1642-88A5-C7256AB15DB0}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,72 +441,93 @@
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FunctionalityChecklist.xlsx
+++ b/FunctionalityChecklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whytheam/Documents/Research/Locality/numa-ws-benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F76E84-3F4C-CB40-ADE4-61641736429B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C808AD-DD40-EA46-A220-2B52655EBD8B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{322178E3-D152-D343-A63E-DB1545416DF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>CILKPLUS</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>NUMA-WS</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,6 +490,30 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">

--- a/FunctionalityChecklist.xlsx
+++ b/FunctionalityChecklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whytheam/Documents/Research/Locality/numa-ws-benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C808AD-DD40-EA46-A220-2B52655EBD8B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5E68A-E333-2C4D-9DC8-5A000C582A8B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{322178E3-D152-D343-A63E-DB1545416DF2}"/>
+    <workbookView xWindow="2280" yWindow="1540" windowWidth="28040" windowHeight="17440" xr2:uid="{322178E3-D152-D343-A63E-DB1545416DF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
   <si>
     <t>CILKPLUS</t>
   </si>
   <si>
     <t>NO_PIN</t>
-  </si>
-  <si>
-    <t>LIKWID</t>
   </si>
   <si>
     <t>SERIAL</t>
@@ -433,31 +430,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2FE7A9-160E-1642-88A5-C7256AB15DB0}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -477,83 +474,206 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
